--- a/exposan/bsm1/results/table.xlsx
+++ b/exposan/bsm1/results/table.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,21 +469,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Stream-Wastewater</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>CSTR-A1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stream-Wastewater</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CSTR-A1</t>
-        </is>
-      </c>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
@@ -532,6 +528,11 @@
           <t>WAS</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>System</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -541,24 +542,24 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
+          <t>Biomass N content i XB [g N/g COD]</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Biomass products N content i XP [g N/g COD]</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Organic particulates ash content fr SS COD [g SS/g COD]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Anoxic zone hydraulic retention time [hr]</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Biomass N content i XB [g N/g COD]</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Biomass products N content i XP [g N/g COD]</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Organic particulates ash content fr SS COD [g SS/g COD]</t>
-        </is>
-      </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
           <t>ASM1 mu H [/d]</t>
@@ -671,14 +672,14 @@
       </c>
       <c r="AB2" s="1" t="inlineStr">
         <is>
+          <t>Sludge recycling as a fraction of influent</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
           <t>Waste sludge flowrate [m3/d]</t>
         </is>
       </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>Sludge recycling as a fraction of influent</t>
-        </is>
-      </c>
       <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Effluent COD [mg/L]</t>
@@ -702,6 +703,11 @@
       <c r="AH2" s="1" t="inlineStr">
         <is>
           <t>Daily sludge production [kg TSS/d]</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>SRT [d]</t>
         </is>
       </c>
     </row>
@@ -710,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2.428490682510016</v>
+        <v>0.07286363158933369</v>
       </c>
       <c r="C4" t="n">
-        <v>0.102134332650345</v>
+        <v>0.6166007494877587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5946604542213836</v>
+        <v>0.768045946154054</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7873556274353918</v>
+        <v>2.463474835403066</v>
       </c>
       <c r="F4" t="n">
         <v>3.463727539700075</v>
@@ -788,25 +794,28 @@
         <v>82.00457270942788</v>
       </c>
       <c r="AB4" t="n">
-        <v>366.865949217167</v>
+        <v>0.8161232117440488</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8961822582452681</v>
+        <v>391.5241355395426</v>
       </c>
       <c r="AD4" t="n">
-        <v>47.7007411283417</v>
+        <v>48.02005439918594</v>
       </c>
       <c r="AE4" t="n">
-        <v>28.054945061041</v>
+        <v>28.22956997422711</v>
       </c>
       <c r="AF4" t="n">
-        <v>28.054945061041</v>
+        <v>28.22956997422711</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.999999999999993</v>
+        <v>10.00000000000001</v>
       </c>
       <c r="AH4" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7.293995333577937</v>
       </c>
     </row>
     <row r="5">
@@ -814,16 +823,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2.514102264185238</v>
+        <v>0.08721124397564382</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08891919835124326</v>
+        <v>0.6066893987634324</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5993471881224518</v>
+        <v>0.7885187877022513</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7523690448918845</v>
+        <v>2.397377727552487</v>
       </c>
       <c r="F5" t="n">
         <v>4.472911905219941</v>
@@ -892,25 +901,28 @@
         <v>89.64115580925515</v>
       </c>
       <c r="AB5" t="n">
-        <v>373.0161764422563</v>
+        <v>0.8360914819553774</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8570592869618652</v>
+        <v>379.4742603842545</v>
       </c>
       <c r="AD5" t="n">
-        <v>48.29134959484811</v>
+        <v>47.68200600411826</v>
       </c>
       <c r="AE5" t="n">
-        <v>28.26952852600558</v>
+        <v>28.07762920853755</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.26952852600558</v>
+        <v>28.07762920853755</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>7.378289399202067</v>
       </c>
     </row>
     <row r="6">
@@ -918,16 +930,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>2.469784572178098</v>
+        <v>0.07979956413592557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08139811341715916</v>
+        <v>0.6010485850628693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5739397553663567</v>
+        <v>0.710382166984632</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7351010783294603</v>
+        <v>2.365843261392278</v>
       </c>
       <c r="F6" t="n">
         <v>3.696509931681695</v>
@@ -996,25 +1008,28 @@
         <v>87.94476986958041</v>
       </c>
       <c r="AB6" t="n">
-        <v>361.7805272534241</v>
+        <v>0.7996121014721562</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7760929519744733</v>
+        <v>354.5366292081378</v>
       </c>
       <c r="AD6" t="n">
-        <v>48.60357139282845</v>
+        <v>49.07692994666115</v>
       </c>
       <c r="AE6" t="n">
-        <v>28.14798893372197</v>
+        <v>28.55282631307377</v>
       </c>
       <c r="AF6" t="n">
-        <v>28.14798893372197</v>
+        <v>28.55282631307377</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.999999999999998</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.882775363035927</v>
       </c>
     </row>
     <row r="7">
@@ -1022,16 +1037,16 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2.341984181967542</v>
+        <v>0.04492104719593906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0714694004425948</v>
+        <v>0.593602050331946</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6138226488201607</v>
+        <v>0.8647378729388258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.768175954671081</v>
+        <v>2.428830118610532</v>
       </c>
       <c r="F7" t="n">
         <v>4.60868199300412</v>
@@ -1100,25 +1115,28 @@
         <v>77.64504437333102</v>
       </c>
       <c r="AB7" t="n">
-        <v>390.3459482604932</v>
+        <v>0.892356974871731</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.8282656059526929</v>
+        <v>370.6058066334294</v>
       </c>
       <c r="AD7" t="n">
-        <v>46.58180152623132</v>
+        <v>46.36468461819939</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.50981378762771</v>
+        <v>17.9483648929494</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.50981378762771</v>
+        <v>17.9483648929494</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.04665806781475</v>
+        <v>13.4023082406281</v>
       </c>
       <c r="AH7" t="n">
-        <v>2263.603257491277</v>
+        <v>2855.262145927885</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>9.618452803773829</v>
       </c>
     </row>
     <row r="8">
@@ -1126,16 +1144,16 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2.543903456165228</v>
+        <v>0.09332824510441426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06768186461173357</v>
+        <v>0.5907613984588002</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6004906910221874</v>
+        <v>0.7944722857540951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8634885695969561</v>
+        <v>2.562944357639582</v>
       </c>
       <c r="F8" t="n">
         <v>4.299861259118078</v>
@@ -1204,25 +1222,28 @@
         <v>90.72473158615749</v>
       </c>
       <c r="AB8" t="n">
-        <v>350.1744734761179</v>
+        <v>0.7619301086886945</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.9177643648478537</v>
+        <v>398.171424373139</v>
       </c>
       <c r="AD8" t="n">
-        <v>46.5809292121465</v>
+        <v>47.58697147693228</v>
       </c>
       <c r="AE8" t="n">
-        <v>27.5175202571277</v>
+        <v>27.94272528123926</v>
       </c>
       <c r="AF8" t="n">
-        <v>27.5175202571277</v>
+        <v>27.94272528123926</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.999999999999996</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="AH8" t="n">
-        <v>1539.999999999999</v>
+        <v>1540</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>7.520434647294897</v>
       </c>
     </row>
     <row r="9">
@@ -1230,16 +1251,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2.49292886423194</v>
+        <v>0.08348258831762298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05793271802989582</v>
+        <v>0.5834495385224219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5852385219304428</v>
+        <v>0.7401570312288543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.804458430771515</v>
+        <v>2.491114103459165</v>
       </c>
       <c r="F9" t="n">
         <v>3.845801365863189</v>
@@ -1308,25 +1329,28 @@
         <v>83.80061084244981</v>
       </c>
       <c r="AB9" t="n">
-        <v>401.5675881473219</v>
+        <v>0.928790870608188</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.8200049218167997</v>
+        <v>368.0615159195743</v>
       </c>
       <c r="AD9" t="n">
-        <v>47.43072310201228</v>
+        <v>48.51064649537595</v>
       </c>
       <c r="AE9" t="n">
-        <v>27.69274993619504</v>
+        <v>28.20072855511987</v>
       </c>
       <c r="AF9" t="n">
-        <v>27.69274993619504</v>
+        <v>28.20072855511987</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.00000000000001</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="AH9" t="n">
-        <v>1540</v>
+        <v>1539.999999999999</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>7.138529394033966</v>
       </c>
     </row>
     <row r="10">
@@ -1334,16 +1358,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2.393874988019474</v>
+        <v>0.06564250059745286</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09989393588206597</v>
+        <v>0.6149204519115494</v>
       </c>
       <c r="D10" t="n">
-        <v>0.603318573333103</v>
+        <v>0.8093765341830849</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8212314566654646</v>
+        <v>2.515240899216446</v>
       </c>
       <c r="F10" t="n">
         <v>3.953731226119301</v>
@@ -1412,25 +1436,28 @@
         <v>86.65557220537306</v>
       </c>
       <c r="AB10" t="n">
-        <v>409.8762341911606</v>
+        <v>0.9557669941271445</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.9824667981155444</v>
+        <v>418.0997738195877</v>
       </c>
       <c r="AD10" t="n">
-        <v>47.17683506742923</v>
+        <v>47.35518893575674</v>
       </c>
       <c r="AE10" t="n">
-        <v>27.90176325589116</v>
+        <v>27.92009704855828</v>
       </c>
       <c r="AF10" t="n">
-        <v>27.90176325589116</v>
+        <v>27.92009704855828</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="AH10" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7.582456109136982</v>
       </c>
     </row>
     <row r="11">
@@ -1438,16 +1465,16 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>2.571190839119902</v>
+        <v>0.1005489527864458</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09442380400128626</v>
+        <v>0.6108178530009647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6190361410224041</v>
+        <v>0.8922153894765198</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7463944687085973</v>
+        <v>2.385148031015501</v>
       </c>
       <c r="F11" t="n">
         <v>4.123063457207258</v>
@@ -1516,25 +1543,28 @@
         <v>85.47307280071881</v>
       </c>
       <c r="AB11" t="n">
-        <v>418.4481697727171</v>
+        <v>0.9835979538075229</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7705465977765312</v>
+        <v>352.8283521151716</v>
       </c>
       <c r="AD11" t="n">
-        <v>48.39774130065818</v>
+        <v>46.20805594472787</v>
       </c>
       <c r="AE11" t="n">
-        <v>28.49749546720786</v>
+        <v>27.56559542448556</v>
       </c>
       <c r="AF11" t="n">
-        <v>28.49749546720786</v>
+        <v>27.56559542448556</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.999999999999998</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>8.003218288346734</v>
       </c>
     </row>
     <row r="12">
@@ -1542,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>2.599184204585085</v>
+        <v>0.1139429765216969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05620478320807362</v>
+        <v>0.5821535874060552</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6098152527616345</v>
+        <v>0.8436170412199526</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8873163534390304</v>
+        <v>2.581586016511367</v>
       </c>
       <c r="F12" t="n">
         <v>3.3556856705164</v>
@@ -1620,25 +1650,28 @@
         <v>80.37676278491129</v>
       </c>
       <c r="AB12" t="n">
-        <v>381.5092228278681</v>
+        <v>0.8636663078826887</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9266790983131487</v>
+        <v>400.9171622804498</v>
       </c>
       <c r="AD12" t="n">
-        <v>46.26993767357307</v>
+        <v>46.85371977021592</v>
       </c>
       <c r="AE12" t="n">
-        <v>27.417312477789</v>
+        <v>27.67388701390262</v>
       </c>
       <c r="AF12" t="n">
-        <v>27.417312477789</v>
+        <v>27.67388701390262</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
       </c>
       <c r="AH12" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>7.839951167311869</v>
       </c>
     </row>
     <row r="13">
@@ -1646,16 +1679,16 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>2.385158233606244</v>
+        <v>0.06347660289433543</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07728799483409626</v>
+        <v>0.5979659961255722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5926065934483269</v>
+        <v>0.7607807024271939</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8442430281015445</v>
+        <v>2.543540661526868</v>
       </c>
       <c r="F13" t="n">
         <v>4.010974562251466</v>
@@ -1724,31 +1757,34 @@
         <v>76.31945575225191</v>
       </c>
       <c r="AB13" t="n">
-        <v>399.0575128553338</v>
+        <v>0.9206412755043303</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9553296380218695</v>
+        <v>409.7415285107358</v>
       </c>
       <c r="AD13" t="n">
-        <v>46.84493050832423</v>
+        <v>48.14439229083492</v>
       </c>
       <c r="AE13" t="n">
-        <v>27.60136099847672</v>
+        <v>28.08869489263905</v>
       </c>
       <c r="AF13" t="n">
-        <v>27.60136099847672</v>
+        <v>28.08869489263905</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.00000000000001</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="AH13" t="n">
         <v>1540</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>7.298186948358551</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:V1"/>
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>

--- a/exposan/bsm1/results/table.xlsx
+++ b/exposan/bsm1/results/table.xlsx
@@ -800,22 +800,22 @@
         <v>391.5241355395426</v>
       </c>
       <c r="AD4" t="n">
-        <v>48.02005439918594</v>
+        <v>48.02005439918591</v>
       </c>
       <c r="AE4" t="n">
-        <v>28.22956997422711</v>
+        <v>28.22956997422709</v>
       </c>
       <c r="AF4" t="n">
-        <v>28.22956997422711</v>
+        <v>28.22956997422709</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.00000000000001</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="AH4" t="n">
-        <v>1540</v>
+        <v>1566.09654215817</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.293995333577937</v>
+        <v>7.037536119756406</v>
       </c>
     </row>
     <row r="5">
@@ -907,22 +907,22 @@
         <v>379.4742603842545</v>
       </c>
       <c r="AD5" t="n">
-        <v>47.68200600411826</v>
+        <v>47.68200600411825</v>
       </c>
       <c r="AE5" t="n">
-        <v>28.07762920853755</v>
+        <v>28.07762920853754</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.07762920853755</v>
+        <v>28.07762920853754</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="AH5" t="n">
-        <v>1540</v>
+        <v>1517.897041537018</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.378289399202067</v>
+        <v>7.397349835805318</v>
       </c>
     </row>
     <row r="6">
@@ -1014,7 +1014,7 @@
         <v>354.5366292081378</v>
       </c>
       <c r="AD6" t="n">
-        <v>49.07692994666115</v>
+        <v>49.07692994666116</v>
       </c>
       <c r="AE6" t="n">
         <v>28.55282631307377</v>
@@ -1026,10 +1026,10 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>1540</v>
+        <v>1418.146516832551</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.882775363035927</v>
+        <v>7.102933565346249</v>
       </c>
     </row>
     <row r="7">
@@ -1121,22 +1121,22 @@
         <v>370.6058066334294</v>
       </c>
       <c r="AD7" t="n">
-        <v>46.36468461819939</v>
+        <v>46.41824646970632</v>
       </c>
       <c r="AE7" t="n">
-        <v>17.9483648929494</v>
+        <v>22.67027768859399</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.9483648929494</v>
+        <v>22.67027768859399</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.4023082406281</v>
+        <v>13.2451123348721</v>
       </c>
       <c r="AH7" t="n">
-        <v>2855.262145927885</v>
+        <v>2854.11137679311</v>
       </c>
       <c r="AI7" t="n">
-        <v>9.618452803773829</v>
+        <v>9.274855574569065</v>
       </c>
     </row>
     <row r="8">
@@ -1237,13 +1237,13 @@
         <v>27.94272528123926</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.999999999999998</v>
+        <v>9.999999999999996</v>
       </c>
       <c r="AH8" t="n">
-        <v>1540</v>
+        <v>1592.685697492555</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.520434647294897</v>
+        <v>7.24269056736952</v>
       </c>
     </row>
     <row r="9">
@@ -1335,22 +1335,22 @@
         <v>368.0615159195743</v>
       </c>
       <c r="AD9" t="n">
-        <v>48.51064649537595</v>
+        <v>48.51064649537597</v>
       </c>
       <c r="AE9" t="n">
-        <v>28.20072855511987</v>
+        <v>28.20072855511988</v>
       </c>
       <c r="AF9" t="n">
-        <v>28.20072855511987</v>
+        <v>28.20072855511988</v>
       </c>
       <c r="AG9" t="n">
-        <v>9.999999999999996</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>1539.999999999999</v>
+        <v>1472.246063678296</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.138529394033966</v>
+        <v>7.402913152210308</v>
       </c>
     </row>
     <row r="10">
@@ -1442,22 +1442,22 @@
         <v>418.0997738195877</v>
       </c>
       <c r="AD10" t="n">
-        <v>47.35518893575674</v>
+        <v>47.35518893575676</v>
       </c>
       <c r="AE10" t="n">
-        <v>27.92009704855828</v>
+        <v>27.92009704855829</v>
       </c>
       <c r="AF10" t="n">
-        <v>27.92009704855828</v>
+        <v>27.92009704855829</v>
       </c>
       <c r="AG10" t="n">
-        <v>9.999999999999998</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>1540</v>
+        <v>1672.399095278351</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.582456109136982</v>
+        <v>6.794013060792323</v>
       </c>
     </row>
     <row r="11">
@@ -1549,22 +1549,22 @@
         <v>352.8283521151716</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.20805594472787</v>
+        <v>46.20805594472785</v>
       </c>
       <c r="AE11" t="n">
-        <v>27.56559542448556</v>
+        <v>27.56559542448555</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.56559542448556</v>
+        <v>27.56559542448555</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="AH11" t="n">
-        <v>1540</v>
+        <v>1411.313408460686</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.003218288346734</v>
+        <v>8.296468300384271</v>
       </c>
     </row>
     <row r="12">
@@ -1659,19 +1659,19 @@
         <v>46.85371977021592</v>
       </c>
       <c r="AE12" t="n">
-        <v>27.67388701390262</v>
+        <v>27.67388701390261</v>
       </c>
       <c r="AF12" t="n">
-        <v>27.67388701390262</v>
+        <v>27.67388701390261</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>1540</v>
+        <v>1603.668649121799</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.839951167311869</v>
+        <v>7.448695540805668</v>
       </c>
     </row>
     <row r="13">
@@ -1772,13 +1772,13 @@
         <v>28.08869489263905</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.999999999999996</v>
+        <v>9.999999999999995</v>
       </c>
       <c r="AH13" t="n">
-        <v>1540</v>
+        <v>1638.966114042943</v>
       </c>
       <c r="AI13" t="n">
-        <v>7.298186948358551</v>
+        <v>6.736522995994106</v>
       </c>
     </row>
   </sheetData>

--- a/exposan/bsm1/results/table.xlsx
+++ b/exposan/bsm1/results/table.xlsx
@@ -800,22 +800,22 @@
         <v>391.5241355395426</v>
       </c>
       <c r="AD4" t="n">
-        <v>48.02005439918591</v>
+        <v>46.95831105947733</v>
       </c>
       <c r="AE4" t="n">
-        <v>28.22956997422709</v>
+        <v>17.41509247593502</v>
       </c>
       <c r="AF4" t="n">
-        <v>28.22956997422709</v>
+        <v>17.41509247593502</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.999999999999996</v>
+        <v>12.0226375453966</v>
       </c>
       <c r="AH4" t="n">
-        <v>1566.09654215817</v>
+        <v>2568.727977746561</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.037536119756406</v>
+        <v>7.979974171044744</v>
       </c>
     </row>
     <row r="5">
@@ -907,22 +907,22 @@
         <v>379.4742603842545</v>
       </c>
       <c r="AD5" t="n">
-        <v>47.68200600411825</v>
+        <v>46.51342637711423</v>
       </c>
       <c r="AE5" t="n">
-        <v>28.07762920853754</v>
+        <v>15.73886832606929</v>
       </c>
       <c r="AF5" t="n">
-        <v>28.07762920853754</v>
+        <v>15.73886832606929</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.999999999999996</v>
+        <v>12.40599545666361</v>
       </c>
       <c r="AH5" t="n">
-        <v>1517.897041537018</v>
+        <v>2636.49957960902</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.397349835805318</v>
+        <v>8.538506472491873</v>
       </c>
     </row>
     <row r="6">
@@ -1014,22 +1014,22 @@
         <v>354.5366292081378</v>
       </c>
       <c r="AD6" t="n">
-        <v>49.07692994666116</v>
+        <v>47.83827299496465</v>
       </c>
       <c r="AE6" t="n">
-        <v>28.55282631307377</v>
+        <v>19.91118261502551</v>
       </c>
       <c r="AF6" t="n">
-        <v>28.55282631307377</v>
+        <v>19.91118261502551</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>12.13385427617943</v>
       </c>
       <c r="AH6" t="n">
-        <v>1418.146516832551</v>
+        <v>2403.923906989324</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.102933565346249</v>
+        <v>8.344577842533239</v>
       </c>
     </row>
     <row r="7">
@@ -1228,22 +1228,22 @@
         <v>398.171424373139</v>
       </c>
       <c r="AD8" t="n">
-        <v>47.58697147693228</v>
+        <v>45.85806284856325</v>
       </c>
       <c r="AE8" t="n">
-        <v>27.94272528123926</v>
+        <v>19.79845535331189</v>
       </c>
       <c r="AF8" t="n">
-        <v>27.94272528123926</v>
+        <v>19.79845535331189</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.999999999999996</v>
+        <v>12.13121494674701</v>
       </c>
       <c r="AH8" t="n">
-        <v>1592.685697492555</v>
+        <v>2776.481369109788</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.24269056736952</v>
+        <v>7.938457473112671</v>
       </c>
     </row>
     <row r="9">
@@ -1335,22 +1335,22 @@
         <v>368.0615159195743</v>
       </c>
       <c r="AD9" t="n">
-        <v>48.51064649537597</v>
+        <v>47.91644165065684</v>
       </c>
       <c r="AE9" t="n">
-        <v>28.20072855511988</v>
+        <v>18.66450760386803</v>
       </c>
       <c r="AF9" t="n">
-        <v>28.20072855511988</v>
+        <v>18.66450760386803</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>12.42235751268861</v>
       </c>
       <c r="AH9" t="n">
-        <v>1472.246063678296</v>
+        <v>2417.111231139143</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.402913152210308</v>
+        <v>9.137175570672822</v>
       </c>
     </row>
     <row r="10">
@@ -1442,22 +1442,22 @@
         <v>418.0997738195877</v>
       </c>
       <c r="AD10" t="n">
-        <v>47.35518893575676</v>
+        <v>46.30947744170494</v>
       </c>
       <c r="AE10" t="n">
-        <v>27.92009704855829</v>
+        <v>17.31562649762855</v>
       </c>
       <c r="AF10" t="n">
-        <v>27.92009704855829</v>
+        <v>17.31562649762855</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>12.44563965128156</v>
       </c>
       <c r="AH10" t="n">
-        <v>1672.399095278351</v>
+        <v>2715.77437323452</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.794013060792323</v>
+        <v>7.93093958364932</v>
       </c>
     </row>
     <row r="11">
@@ -1549,22 +1549,22 @@
         <v>352.8283521151716</v>
       </c>
       <c r="AD11" t="n">
-        <v>46.20805594472785</v>
+        <v>46.81686235639503</v>
       </c>
       <c r="AE11" t="n">
-        <v>27.56559542448555</v>
+        <v>20.04219797792127</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.56559542448555</v>
+        <v>20.04219797792127</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.999999999999998</v>
+        <v>13.97893184294653</v>
       </c>
       <c r="AH11" t="n">
-        <v>1411.313408460686</v>
+        <v>2869.018982713257</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.296468300384271</v>
+        <v>10.13778275725668</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         <v>400.9171622804498</v>
       </c>
       <c r="AD12" t="n">
-        <v>46.85371977021592</v>
+        <v>46.03364410648948</v>
       </c>
       <c r="AE12" t="n">
-        <v>27.67388701390261</v>
+        <v>17.45985236966562</v>
       </c>
       <c r="AF12" t="n">
-        <v>27.67388701390261</v>
+        <v>17.45985236966562</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>12.72769964403082</v>
       </c>
       <c r="AH12" t="n">
-        <v>1603.668649121799</v>
+        <v>2892.267890909212</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.448695540805668</v>
+        <v>8.544392623645027</v>
       </c>
     </row>
     <row r="13">
@@ -1763,22 +1763,22 @@
         <v>409.7415285107358</v>
       </c>
       <c r="AD13" t="n">
-        <v>48.14439229083492</v>
+        <v>47.24265292604614</v>
       </c>
       <c r="AE13" t="n">
-        <v>28.08869489263905</v>
+        <v>19.57552260982829</v>
       </c>
       <c r="AF13" t="n">
-        <v>28.08869489263905</v>
+        <v>19.57552260982829</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.999999999999995</v>
+        <v>12.38451482402741</v>
       </c>
       <c r="AH13" t="n">
-        <v>1638.966114042943</v>
+        <v>2686.859710962138</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.736522995994106</v>
+        <v>8.085499597515657</v>
       </c>
     </row>
   </sheetData>
